--- a/config_Release/fish_3d_am_server.xlsx
+++ b/config_Release/fish_3d_am_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="game_main" sheetId="2" r:id="rId1"/>
@@ -663,7 +663,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1314,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1381,7 +1381,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>200000</v>
+        <v>60000</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
@@ -1401,7 +1401,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -1421,7 +1421,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
@@ -1526,7 +1526,7 @@
         <v>44</v>
       </c>
       <c r="D11" s="1">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
@@ -1543,7 +1543,7 @@
         <v>44</v>
       </c>
       <c r="D12" s="1">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
@@ -1560,7 +1560,7 @@
         <v>45</v>
       </c>
       <c r="D13" s="1">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="E13" s="1">
         <v>3</v>

--- a/config_Release/fish_3d_am_server.xlsx
+++ b/config_Release/fish_3d_am_server.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
   <si>
     <t>id|行号</t>
   </si>
@@ -1315,7 +1315,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1381,7 +1381,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>

--- a/config_Release/fish_3d_am_server.xlsx
+++ b/config_Release/fish_3d_am_server.xlsx
@@ -1315,7 +1315,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1381,7 +1381,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
